--- a/biology/Microbiologie/Rang_(bactériologie)/Rang_(bactériologie).xlsx
+++ b/biology/Microbiologie/Rang_(bactériologie)/Rang_(bactériologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rang_(bact%C3%A9riologie)</t>
+          <t>Rang_(bactériologie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En nomenclature bactérienne, un taxon est habituellement assigné à un rang dans une hiérarchie. Le rang plus important est l'espèce (species). Selon Art 5b-5c du « International Code of Nomenclature of Prokaryotes » les rangs suivants sont permis[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En nomenclature bactérienne, un taxon est habituellement assigné à un rang dans une hiérarchie. Le rang plus important est l'espèce (species). Selon Art 5b-5c du « International Code of Nomenclature of Prokaryotes » les rangs suivants sont permis :
 phylum (phylum)
 classe (classis)
 - - - - - - sous-classe (subclassis)
@@ -502,7 +514,7 @@
 Pseudomonadaceae
 Corynebacterium helvolum (Zimmermann 1890) Kisskalt and Berend 1918
 Bacillus cereus subsp. mycoides (Flügge 1886) Smith et al. 1946
-La nomenclature bactérienne ne doit pas être confondue avec la taxinomie bactérienne : en taxinomie on peut utiliser davantage de rangs, mais ces rangs n'ont pas de statut dans le « International Code of Nomenclature of Prokaryotes », et les noms n'ont pas de valeur nomenclatural. Depuis 2021, l'ICSP a inclus dans le nouveau code de nomenclature des procaryotes (ICNP) tous les rangs jusqu'au rang de phylum compris[1].
+La nomenclature bactérienne ne doit pas être confondue avec la taxinomie bactérienne : en taxinomie on peut utiliser davantage de rangs, mais ces rangs n'ont pas de statut dans le « International Code of Nomenclature of Prokaryotes », et les noms n'ont pas de valeur nomenclatural. Depuis 2021, l'ICSP a inclus dans le nouveau code de nomenclature des procaryotes (ICNP) tous les rangs jusqu'au rang de phylum compris.
 </t>
         </is>
       </c>
